--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_35.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_3_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3449343.044083343</v>
+        <v>3447455.462566942</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -707,22 +707,22 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>131.5366686688007</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>309.7029429582356</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -820,19 +820,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>59.66385641544551</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>156.1271626621473</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -911,10 +911,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>192.3121941324474</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>75.13651949521405</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544559</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1105,19 +1105,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>189.5968436493441</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>220.9109866599747</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1181,19 +1181,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>61.22388539774963</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250821</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229336</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544559</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491435</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>133.4548648132218</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>115.5269768002175</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1585,7 +1585,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>59.77945773664958</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896917</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -1822,16 +1822,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>97.58716462297951</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,7 +2008,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>93.87916681139863</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>187.8326399421082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,13 +2242,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>20.37729220500735</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2521,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>183.1796758467</v>
+        <v>235.597564670956</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.96451678969</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,10 +2713,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>101.0041688483407</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>25.3743380724142</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2804,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533804</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
-        <v>55.80377616365048</v>
+        <v>93.41221638965541</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437412</v>
+        <v>90.2177913943743</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>111.2903118348207</v>
       </c>
       <c r="H31" t="n">
-        <v>93.710571738979</v>
+        <v>93.71057173897918</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571485</v>
+        <v>1.599126004628069</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523586</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.9343866952711</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.3197417080341</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3515,13 +3515,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3560,7 +3560,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463133</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4135,22 +4135,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
         <v>42.28735533463133</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1732.515907621104</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
         <v>952.5674858910851</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2509.255079661038</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2509.255079661038</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2509.255079661038</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2509.255079661038</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2509.255079661038</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2509.255079661038</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="Y2" t="n">
-        <v>2119.115747685226</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4398,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,10 +4410,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417901</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>578.0123447940987</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>430.0992512117056</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>283.2093037137952</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>114.2095034521276</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4516,22 +4516,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>211.6471865296041</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1191.835263233623</v>
+        <v>1359.546482223453</v>
       </c>
       <c r="C5" t="n">
-        <v>1191.835263233623</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D5" t="n">
-        <v>1191.835263233623</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E5" t="n">
-        <v>806.0470106353782</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,10 +4568,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2502.894349470296</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2249.132564108387</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>1918.069676764816</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>1565.301021494702</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="X5" t="n">
-        <v>1191.835263233623</v>
+        <v>2136.285654263387</v>
       </c>
       <c r="Y5" t="n">
-        <v>1191.835263233623</v>
+        <v>1746.146322287575</v>
       </c>
     </row>
     <row r="6">
@@ -4620,73 +4620,73 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4753,22 +4753,22 @@
         <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>536.6170209242687</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2072.529454785695</v>
+        <v>1540.92109601469</v>
       </c>
       <c r="C8" t="n">
-        <v>1703.566937845283</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>959.5129866402887</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>959.5129866402887</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>952.5674858910852</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>534.6036777892721</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>207.4089578252749</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2478.514423990284</v>
       </c>
       <c r="U8" t="n">
-        <v>2459.129294849817</v>
+        <v>2224.752638628375</v>
       </c>
       <c r="V8" t="n">
-        <v>2459.129294849817</v>
+        <v>1893.689751284805</v>
       </c>
       <c r="W8" t="n">
-        <v>2459.129294849817</v>
+        <v>1540.92109601469</v>
       </c>
       <c r="X8" t="n">
-        <v>2459.129294849817</v>
+        <v>1540.92109601469</v>
       </c>
       <c r="Y8" t="n">
-        <v>2459.129294849817</v>
+        <v>1540.92109601469</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572642</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1748.695370517454</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2188.831293537798</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477908</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658207</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502497</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594897</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>409.5384547146236</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>274.7355609638945</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>274.7355609638945</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>274.7355609638945</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036442</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,49 +5024,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5081,10 +5081,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>380.9740019042124</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>627.7391298106764</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5206,7 +5206,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011507</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952639</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W13" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5255,70 +5255,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5352,28 +5352,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>1163.495507227045</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M15" t="n">
-        <v>1470.815640507006</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N15" t="n">
-        <v>1800.678268171039</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1966.019627967826</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2486.320249703573</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>213.9110074201016</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,7 +5440,7 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609665</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>731.3177283550797</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W16" t="n">
-        <v>441.900558318119</v>
+        <v>576.4342094797788</v>
       </c>
       <c r="X16" t="n">
-        <v>213.9110074201017</v>
+        <v>576.4342094797788</v>
       </c>
       <c r="Y16" t="n">
-        <v>213.9110074201016</v>
+        <v>355.6416303362487</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5516,16 +5516,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>1206.718781115523</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395485</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>2103.010087623274</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>192.0445326839209</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>192.0445326839209</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>192.0445326839209</v>
       </c>
       <c r="E19" t="n">
         <v>97.21709146028584</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>964.1357418247857</v>
       </c>
       <c r="V19" t="n">
-        <v>986.0022165609664</v>
+        <v>709.4512536188988</v>
       </c>
       <c r="W19" t="n">
-        <v>696.5850465240057</v>
+        <v>420.0340835819383</v>
       </c>
       <c r="X19" t="n">
-        <v>468.5954956259884</v>
+        <v>192.0445326839209</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.8655562905255</v>
+        <v>192.0445326839209</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5741,19 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5771,7 +5771,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5829,25 +5829,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>462.7283310300503</v>
       </c>
       <c r="L21" t="n">
-        <v>1206.718781115523</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M21" t="n">
-        <v>1514.038914395485</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059518</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.829947894416</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.829947894416</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>265.7133084820803</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>117.8002148996873</v>
       </c>
       <c r="F22" t="n">
         <v>97.21709146028584</v>
@@ -5911,13 +5911,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
         <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
         <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609663</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550795</v>
+        <v>933.2366688293939</v>
       </c>
       <c r="W22" t="n">
-        <v>441.9005583181189</v>
+        <v>643.8194987924334</v>
       </c>
       <c r="X22" t="n">
-        <v>213.9110074201016</v>
+        <v>415.829947894416</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>415.829947894416</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6011,22 +6011,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6054,13 +6054,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6069,25 +6069,25 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>563.7235867775516</v>
+        <v>539.5926371926332</v>
       </c>
       <c r="M24" t="n">
-        <v>1332.091733170013</v>
+        <v>846.912770472595</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383381</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383382</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383382</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688069</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471188</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247866</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>726.1584037733159</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>726.1584037733159</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>436.7412337363553</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>208.751682838338</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383381</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6203,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,31 +6242,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6300,25 +6300,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>498.9056400965605</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>745.6707680030245</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395486</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>416.2699138005285</v>
+        <v>199.2415044384078</v>
       </c>
       <c r="C28" t="n">
-        <v>247.3337308726216</v>
+        <v>199.2415044384078</v>
       </c>
       <c r="D28" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471188</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P28" t="n">
         <v>1460.082827585746</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247854</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609661</v>
+        <v>964.1357418247854</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550792</v>
+        <v>709.4512536188986</v>
       </c>
       <c r="W28" t="n">
-        <v>441.9005583181186</v>
+        <v>420.0340835819379</v>
       </c>
       <c r="X28" t="n">
-        <v>416.2699138005285</v>
+        <v>420.0340835819379</v>
       </c>
       <c r="Y28" t="n">
-        <v>416.2699138005285</v>
+        <v>199.2415044384078</v>
       </c>
     </row>
     <row r="29">
@@ -6443,55 +6443,55 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L30" t="n">
-        <v>659.3731057211721</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M30" t="n">
-        <v>966.6932390011339</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N30" t="n">
-        <v>1296.555866665167</v>
+        <v>1800.678268171039</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2080.218333389736</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>620.7342676598917</v>
+        <v>604.5641438163752</v>
       </c>
       <c r="C31" t="n">
-        <v>507.5589500133555</v>
+        <v>491.388826169839</v>
       </c>
       <c r="D31" t="n">
-        <v>451.1914993430015</v>
+        <v>397.033052038874</v>
       </c>
       <c r="E31" t="n">
-        <v>451.1914993430015</v>
+        <v>397.033052038874</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264619</v>
+        <v>305.9039698223343</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276534</v>
+        <v>193.4895134235255</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>98.83237025283945</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864673</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933496</v>
+        <v>369.0876362933499</v>
       </c>
       <c r="L31" t="n">
         <v>671.4509053667505</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962049</v>
+        <v>997.6688721962047</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056073</v>
       </c>
       <c r="R31" t="n">
-        <v>1936.126063056075</v>
+        <v>1880.811824899269</v>
       </c>
       <c r="S31" t="n">
-        <v>1791.966918252998</v>
+        <v>1736.652680096192</v>
       </c>
       <c r="T31" t="n">
-        <v>1623.942368323874</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1390.574594818803</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1191.650971894287</v>
+        <v>1136.336733737481</v>
       </c>
       <c r="W31" t="n">
-        <v>957.9946671386973</v>
+        <v>902.6804289818914</v>
       </c>
       <c r="X31" t="n">
-        <v>785.7659815220509</v>
+        <v>730.4517433652443</v>
       </c>
       <c r="Y31" t="n">
-        <v>620.7342676598917</v>
+        <v>730.4517433652443</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
@@ -6698,10 +6698,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K32" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6731,19 +6731,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6783,19 +6783,19 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>901.674922584592</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.043068977054</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N33" t="n">
-        <v>1999.905696641086</v>
+        <v>1453.977845975556</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
@@ -6859,13 +6859,13 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
@@ -6877,7 +6877,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
@@ -6892,16 +6892,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
@@ -6932,34 +6932,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649688</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7169,22 +7169,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7196,28 +7196,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>806.1650729342614</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1113.485206214223</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1443.347833878256</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108332</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.0503551525399</v>
@@ -7336,16 +7336,16 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649697</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
         <v>1932.236826184156</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="41">
@@ -7388,70 +7388,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>485.4047026089419</v>
       </c>
       <c r="L42" t="n">
-        <v>624.8682044203583</v>
+        <v>732.1698305154059</v>
       </c>
       <c r="M42" t="n">
-        <v>932.1883377003199</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N42" t="n">
-        <v>1736.599915964471</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7549,16 +7549,16 @@
         <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,25 +7567,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q43" t="n">
         <v>2038.520840384657</v>
@@ -7594,16 +7594,16 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
@@ -7622,13 +7622,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7637,40 +7637,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,19 +7679,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>563.7235867775516</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1332.091733170013</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N45" t="n">
-        <v>1661.954360834046</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7786,13 +7786,13 @@
         <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7801,13 +7801,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7840,13 +7840,13 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
         <v>772.2886129010318</v>
@@ -8058,13 +8058,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,13 +8535,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451776</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>94.13752431970619</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8778,19 +8778,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165115</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8927,7 +8927,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>324.145412571165</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9003,13 +9003,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>253.7371603504737</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>50.6266194094365</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,13 +9240,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,13 +9255,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>230.7151863772038</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>34.78428385445217</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="L21" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,13 +9720,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>29.47535963978208</v>
+        <v>5.100663089359301</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
@@ -9738,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>87.16935584025524</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10188,13 +10188,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10203,16 +10203,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>32.92248665775634</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720748</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10431,25 +10431,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>285.1031356539334</v>
       </c>
       <c r="O33" t="n">
-        <v>52.49733361305249</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>32.92248665775656</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>9.900512684486102</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10914,16 +10914,16 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504515</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,10 +11139,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>199.6230805871097</v>
       </c>
       <c r="L42" t="n">
-        <v>91.23759968302113</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,13 +11297,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11373,31 +11373,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>223.674264993448</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>82.39383318338578</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>192.3581855871784</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>51.71984429841023</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,7 +23662,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23671,7 +23671,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>188.9358337136115</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,7 +23896,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>52.55479583517054</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>30.75201340998657</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24130,16 +24130,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>125.0437558179238</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24382,7 +24382,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24409,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>103.0576765518773</v>
+        <v>50.6397877276213</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24601,10 +24601,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>47.61130416987162</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>200.335317316623</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>37.60844022600474</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801204</v>
+        <v>91.23070601801223</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>53.61686283108698</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523566</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -26317,43 +26317,43 @@
         <v>718411.5486312477</v>
       </c>
       <c r="D2" t="n">
-        <v>718411.5486312478</v>
+        <v>718411.5486312484</v>
       </c>
       <c r="E2" t="n">
-        <v>684300.8545409902</v>
+        <v>684300.8545409903</v>
       </c>
       <c r="F2" t="n">
+        <v>684300.8545409904</v>
+      </c>
+      <c r="G2" t="n">
+        <v>684300.8545409901</v>
+      </c>
+      <c r="H2" t="n">
         <v>684300.8545409903</v>
       </c>
-      <c r="G2" t="n">
-        <v>684300.8545409902</v>
-      </c>
-      <c r="H2" t="n">
-        <v>684300.8545409902</v>
-      </c>
       <c r="I2" t="n">
-        <v>684300.8545409903</v>
+        <v>684300.8545409905</v>
       </c>
       <c r="J2" t="n">
-        <v>684300.8545409902</v>
+        <v>684300.8545409904</v>
       </c>
       <c r="K2" t="n">
-        <v>711938.7403542228</v>
+        <v>711938.7403542229</v>
       </c>
       <c r="L2" t="n">
-        <v>718411.5486312483</v>
+        <v>718411.5486312484</v>
       </c>
       <c r="M2" t="n">
-        <v>718411.5486312483</v>
+        <v>718411.5486312481</v>
       </c>
       <c r="N2" t="n">
-        <v>718411.5486312485</v>
+        <v>718411.5486312477</v>
       </c>
       <c r="O2" t="n">
         <v>718411.5486312485</v>
       </c>
       <c r="P2" t="n">
-        <v>718411.5486312486</v>
+        <v>718411.5486312485</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,19 +26381,19 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925925</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.6053028457</v>
+        <v>44162.60530284568</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086681</v>
+        <v>10342.90680086699</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284571</v>
+        <v>44162.60530284551</v>
       </c>
     </row>
     <row r="4">
@@ -26421,16 +26421,16 @@
         <v>165632.8677865244</v>
       </c>
       <c r="D4" t="n">
-        <v>165632.8677865244</v>
+        <v>165632.8677865245</v>
       </c>
       <c r="E4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.6075868707</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687073</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="H4" t="n">
         <v>22174.60758687071</v>
@@ -26439,25 +26439,25 @@
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687078</v>
       </c>
       <c r="K4" t="n">
         <v>40339.23010106726</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819121</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819116</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819117</v>
+        <v>44593.39482819122</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.39482819121</v>
       </c>
       <c r="P4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
     </row>
     <row r="5">
@@ -26473,13 +26473,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340943</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26491,25 +26491,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022276</v>
       </c>
       <c r="L5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
+        <v>97715.10582002538</v>
+      </c>
+      <c r="N5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="O5" t="n">
         <v>97715.1058200254</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>97715.1058200254</v>
-      </c>
-      <c r="O5" t="n">
-        <v>97715.10582002539</v>
-      </c>
-      <c r="P5" t="n">
-        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26525,43 +26525,43 @@
         <v>469919.6027813139</v>
       </c>
       <c r="D6" t="n">
-        <v>469919.6027813141</v>
+        <v>469919.6027813149</v>
       </c>
       <c r="E6" t="n">
-        <v>44978.88452850672</v>
+        <v>44881.42540253443</v>
       </c>
       <c r="F6" t="n">
-        <v>570138.921005403</v>
+        <v>570041.461879431</v>
       </c>
       <c r="G6" t="n">
-        <v>570138.9210054029</v>
+        <v>570041.4618794307</v>
       </c>
       <c r="H6" t="n">
-        <v>570138.9210054029</v>
+        <v>570041.4618794309</v>
       </c>
       <c r="I6" t="n">
-        <v>570138.921005403</v>
+        <v>570041.461879431</v>
       </c>
       <c r="J6" t="n">
-        <v>393715.7018128099</v>
+        <v>393618.2426868383</v>
       </c>
       <c r="K6" t="n">
-        <v>530808.6964200871</v>
+        <v>530790.2026821529</v>
       </c>
       <c r="L6" t="n">
-        <v>565760.1411821649</v>
+        <v>565760.1411821648</v>
       </c>
       <c r="M6" t="n">
-        <v>441302.0327491945</v>
+        <v>441302.0327491944</v>
       </c>
       <c r="N6" t="n">
-        <v>576103.047983032</v>
+        <v>576103.047983031</v>
       </c>
       <c r="O6" t="n">
-        <v>576103.047983032</v>
+        <v>576103.0479830318</v>
       </c>
       <c r="P6" t="n">
-        <v>531940.4426801864</v>
+        <v>531940.4426801865</v>
       </c>
     </row>
   </sheetData>
@@ -26701,31 +26701,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.173538924910492e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26741,43 +26741,43 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170863</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26793,7 +26793,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26923,7 +26923,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855689</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108351</v>
+        <v>12.92863350108374</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855688</v>
       </c>
     </row>
     <row r="3">
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,13 +26978,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,7 +27160,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855689</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,7 +27388,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>42.87904414017078</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>60.02815772023342</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,19 +27540,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>96.50703242634964</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27588,10 +27588,10 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>69.58249272688988</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>24.13612622521043</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>294.594581183255</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,19 +27774,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831822</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27825,19 +27825,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>35.43826180874018</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>144.3619051110329</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.4784025748118</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>190.0002821105397</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28011,28 +28011,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831822</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853704</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28065,10 +28065,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>118.6827785106062</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-2.842170943040401e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.463149601477198e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855694</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855713</v>
+        <v>55.20325662855694</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554461</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630667</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405365</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119863</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633789</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727379</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473547</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141102</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188907</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396469</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.870296998312</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736698</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923045</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034977</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372662</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619148</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078604</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644436</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813573</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302232</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175835</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383792</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678003</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701161</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197221</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315607</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T26" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,43 +33099,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P28" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34778,13 +34778,13 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181309</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435299</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060962</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492234</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770683</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262936</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355141</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245896</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735645</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713947</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535654</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873141</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>244.7129629076454</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>536.1008625915819</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>138.6396521945106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,13 +35960,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504663</v>
@@ -35975,13 +35975,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>437.8086013087286</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>327.2930933377847</v>
       </c>
       <c r="L21" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>278.7330645958064</v>
+        <v>254.3583680453837</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>237.7447944281944</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.363702241108</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315245</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N28" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>516.7753531914248</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>240.015901589281</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412266</v>
+        <v>67.71102679412246</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075294</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491597</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043189</v>
+        <v>94.42895660043169</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,16 +37066,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>618.2977090519462</v>
       </c>
       <c r="O33" t="n">
-        <v>334.8610358541607</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>366.1170600557694</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>259.1582176405104</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109082</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>350.1985191750489</v>
       </c>
       <c r="L42" t="n">
-        <v>340.4953046390455</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>506.0379672345562</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38187,7 +38187,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414414</v>
